--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.760207199400496</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H2">
-        <v>0.760207199400496</v>
+        <v>3.258836</v>
       </c>
       <c r="I2">
-        <v>0.008443819413015904</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J2">
-        <v>0.008443819413015904</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>41.4148056366349</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N2">
-        <v>41.4148056366349</v>
+        <v>0.353392</v>
       </c>
       <c r="O2">
-        <v>0.4218918535179724</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P2">
-        <v>0.4218918535179724</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q2">
-        <v>31.48383340674209</v>
+        <v>0.1279607301902222</v>
       </c>
       <c r="R2">
-        <v>31.48383340674209</v>
+        <v>1.151646571712</v>
       </c>
       <c r="S2">
-        <v>0.003562378622928318</v>
+        <v>1.187661407574973E-05</v>
       </c>
       <c r="T2">
-        <v>0.003562378622928318</v>
+        <v>1.248412001089609E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.760207199400496</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H3">
-        <v>0.760207199400496</v>
+        <v>3.258836</v>
       </c>
       <c r="I3">
-        <v>0.008443819413015904</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J3">
-        <v>0.008443819413015904</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>56.7497009574007</v>
+        <v>0.020824</v>
       </c>
       <c r="N3">
-        <v>56.7497009574007</v>
+        <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.5781081464820276</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P3">
-        <v>0.5781081464820276</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q3">
-        <v>43.14153123164123</v>
+        <v>0.02262066695466666</v>
       </c>
       <c r="R3">
-        <v>43.14153123164123</v>
+        <v>0.203586002592</v>
       </c>
       <c r="S3">
-        <v>0.004881440790087586</v>
+        <v>2.099526402805488E-06</v>
       </c>
       <c r="T3">
-        <v>0.004881440790087586</v>
+        <v>2.206920205665948E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.0792899343937</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H4">
-        <v>75.0792899343937</v>
+        <v>3.258836</v>
       </c>
       <c r="I4">
-        <v>0.8339252329673077</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J4">
-        <v>0.8339252329673077</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.4148056366349</v>
+        <v>54.104803</v>
       </c>
       <c r="N4">
-        <v>41.4148056366349</v>
+        <v>162.314409</v>
       </c>
       <c r="O4">
-        <v>0.4218918535179724</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P4">
-        <v>0.4218918535179724</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q4">
-        <v>3109.394199969474</v>
+        <v>58.77289326310267</v>
       </c>
       <c r="R4">
-        <v>3109.394199969474</v>
+        <v>528.9560393679241</v>
       </c>
       <c r="S4">
-        <v>0.3518262622319844</v>
+        <v>0.005454978026176028</v>
       </c>
       <c r="T4">
-        <v>0.3518262622319844</v>
+        <v>0.005734008017877239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.0792899343937</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H5">
-        <v>75.0792899343937</v>
+        <v>3.258836</v>
       </c>
       <c r="I5">
-        <v>0.8339252329673077</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J5">
-        <v>0.8339252329673077</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.7497009574007</v>
+        <v>58.93420533333333</v>
       </c>
       <c r="N5">
-        <v>56.7497009574007</v>
+        <v>176.802616</v>
       </c>
       <c r="O5">
-        <v>0.5781081464820276</v>
+        <v>0.5200319658449</v>
       </c>
       <c r="P5">
-        <v>0.5781081464820276</v>
+        <v>0.5202621374970865</v>
       </c>
       <c r="Q5">
-        <v>4260.727251870827</v>
+        <v>64.01896999055289</v>
       </c>
       <c r="R5">
-        <v>4260.727251870827</v>
+        <v>576.1707299149761</v>
       </c>
       <c r="S5">
-        <v>0.4820989707353233</v>
+        <v>0.005941890132812781</v>
       </c>
       <c r="T5">
-        <v>0.4820989707353233</v>
+        <v>0.006245826380858587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7698203934965679</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H6">
-        <v>0.7698203934965679</v>
+        <v>3.258836</v>
       </c>
       <c r="I6">
-        <v>0.008550595664271503</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J6">
-        <v>0.008550595664271503</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>41.4148056366349</v>
+        <v>0.150414</v>
       </c>
       <c r="N6">
-        <v>41.4148056366349</v>
+        <v>0.300828</v>
       </c>
       <c r="O6">
-        <v>0.4218918535179724</v>
+        <v>0.001327244300117055</v>
       </c>
       <c r="P6">
-        <v>0.4218918535179724</v>
+        <v>0.0008852211683280384</v>
       </c>
       <c r="Q6">
-        <v>31.88196197177816</v>
+        <v>0.163391519368</v>
       </c>
       <c r="R6">
-        <v>31.88196197177816</v>
+        <v>0.9803491162079999</v>
       </c>
       <c r="S6">
-        <v>0.003607426653482243</v>
+        <v>1.516510585629969E-05</v>
       </c>
       <c r="T6">
-        <v>0.003607426653482243</v>
+        <v>1.062721525851703E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7698203934965679</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H7">
-        <v>0.7698203934965679</v>
+        <v>235.023953</v>
       </c>
       <c r="I7">
-        <v>0.008550595664271503</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J7">
-        <v>0.008550595664271503</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>56.7497009574007</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N7">
-        <v>56.7497009574007</v>
+        <v>0.353392</v>
       </c>
       <c r="O7">
-        <v>0.5781081464820276</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P7">
-        <v>0.5781081464820276</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q7">
-        <v>43.68707712183876</v>
+        <v>9.228398310952889</v>
       </c>
       <c r="R7">
-        <v>43.68707712183876</v>
+        <v>83.05558479857599</v>
       </c>
       <c r="S7">
-        <v>0.00494316901078926</v>
+        <v>0.0008565293829877117</v>
       </c>
       <c r="T7">
-        <v>0.00494316901078926</v>
+        <v>0.000900342095977583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.662053204643028</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H8">
-        <v>0.662053204643028</v>
+        <v>235.023953</v>
       </c>
       <c r="I8">
-        <v>0.007353597422153726</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J8">
-        <v>0.007353597422153726</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>41.4148056366349</v>
+        <v>0.020824</v>
       </c>
       <c r="N8">
-        <v>41.4148056366349</v>
+        <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.4218918535179724</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P8">
-        <v>0.4218918535179724</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q8">
-        <v>27.41880479140228</v>
+        <v>1.631379599090667</v>
       </c>
       <c r="R8">
-        <v>27.41880479140228</v>
+        <v>14.682416391816</v>
       </c>
       <c r="S8">
-        <v>0.003102422846457419</v>
+        <v>0.0001514157185618473</v>
       </c>
       <c r="T8">
-        <v>0.003102422846457419</v>
+        <v>0.0001591608508962047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.662053204643028</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H9">
-        <v>0.662053204643028</v>
+        <v>235.023953</v>
       </c>
       <c r="I9">
-        <v>0.007353597422153726</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J9">
-        <v>0.007353597422153726</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.7497009574007</v>
+        <v>54.104803</v>
       </c>
       <c r="N9">
-        <v>56.7497009574007</v>
+        <v>162.314409</v>
       </c>
       <c r="O9">
-        <v>0.5781081464820276</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P9">
-        <v>0.5781081464820276</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q9">
-        <v>37.57132138138064</v>
+        <v>4238.64155911542</v>
       </c>
       <c r="R9">
-        <v>37.57132138138064</v>
+        <v>38147.77403203878</v>
       </c>
       <c r="S9">
-        <v>0.004251174575696307</v>
+        <v>0.3934074925034667</v>
       </c>
       <c r="T9">
-        <v>0.004251174575696307</v>
+        <v>0.4135308530086213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.7598298677212</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H10">
-        <v>12.7598298677212</v>
+        <v>235.023953</v>
       </c>
       <c r="I10">
-        <v>0.1417267545332512</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J10">
-        <v>0.1417267545332512</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.4148056366349</v>
+        <v>58.93420533333333</v>
       </c>
       <c r="N10">
-        <v>41.4148056366349</v>
+        <v>176.802616</v>
       </c>
       <c r="O10">
-        <v>0.4218918535179724</v>
+        <v>0.5200319658449</v>
       </c>
       <c r="P10">
-        <v>0.4218918535179724</v>
+        <v>0.5202621374970865</v>
       </c>
       <c r="Q10">
-        <v>528.4458739282023</v>
+        <v>4616.983301451228</v>
       </c>
       <c r="R10">
-        <v>528.4458739282023</v>
+        <v>41552.84971306105</v>
       </c>
       <c r="S10">
-        <v>0.05979336316312003</v>
+        <v>0.4285231006731712</v>
       </c>
       <c r="T10">
-        <v>0.05979336316312003</v>
+        <v>0.4504426751702352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>78.34131766666667</v>
+      </c>
+      <c r="H11">
+        <v>235.023953</v>
+      </c>
+      <c r="I11">
+        <v>0.8240322303590443</v>
+      </c>
+      <c r="J11">
+        <v>0.8657994551309391</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.150414</v>
+      </c>
+      <c r="N11">
+        <v>0.300828</v>
+      </c>
+      <c r="O11">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P11">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q11">
+        <v>11.783630955514</v>
+      </c>
+      <c r="R11">
+        <v>70.70178573308399</v>
+      </c>
+      <c r="S11">
+        <v>0.001093692080856785</v>
+      </c>
+      <c r="T11">
+        <v>0.0007664240052087891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.971679</v>
+      </c>
+      <c r="H12">
+        <v>2.915037</v>
+      </c>
+      <c r="I12">
+        <v>0.01022059415658427</v>
+      </c>
+      <c r="J12">
+        <v>0.01073863924961949</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.353392</v>
+      </c>
+      <c r="O12">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P12">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q12">
+        <v>0.114461195056</v>
+      </c>
+      <c r="R12">
+        <v>1.030150755504</v>
+      </c>
+      <c r="S12">
+        <v>1.062366116783148E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.116707675507528E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.971679</v>
+      </c>
+      <c r="H13">
+        <v>2.915037</v>
+      </c>
+      <c r="I13">
+        <v>0.01022059415658427</v>
+      </c>
+      <c r="J13">
+        <v>0.01073863924961949</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.020824</v>
+      </c>
+      <c r="N13">
+        <v>0.062472</v>
+      </c>
+      <c r="O13">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P13">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q13">
+        <v>0.020234243496</v>
+      </c>
+      <c r="R13">
+        <v>0.182108191464</v>
+      </c>
+      <c r="S13">
+        <v>1.878031648924616E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.974095675745527E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.971679</v>
+      </c>
+      <c r="H14">
+        <v>2.915037</v>
+      </c>
+      <c r="I14">
+        <v>0.01022059415658427</v>
+      </c>
+      <c r="J14">
+        <v>0.01073863924961949</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.104803</v>
+      </c>
+      <c r="N14">
+        <v>162.314409</v>
+      </c>
+      <c r="O14">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P14">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q14">
+        <v>52.572500874237</v>
+      </c>
+      <c r="R14">
+        <v>473.152507868133</v>
+      </c>
+      <c r="S14">
+        <v>0.004879491567077965</v>
+      </c>
+      <c r="T14">
+        <v>0.005129084596588725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>12.7598298677212</v>
-      </c>
-      <c r="H11">
-        <v>12.7598298677212</v>
-      </c>
-      <c r="I11">
-        <v>0.1417267545332512</v>
-      </c>
-      <c r="J11">
-        <v>0.1417267545332512</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="N11">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="O11">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="P11">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="Q11">
-        <v>724.1165292604878</v>
-      </c>
-      <c r="R11">
-        <v>724.1165292604878</v>
-      </c>
-      <c r="S11">
-        <v>0.08193339137013114</v>
-      </c>
-      <c r="T11">
-        <v>0.08193339137013114</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.971679</v>
+      </c>
+      <c r="H15">
+        <v>2.915037</v>
+      </c>
+      <c r="I15">
+        <v>0.01022059415658427</v>
+      </c>
+      <c r="J15">
+        <v>0.01073863924961949</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N15">
+        <v>176.802616</v>
+      </c>
+      <c r="O15">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P15">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q15">
+        <v>57.265129704088</v>
+      </c>
+      <c r="R15">
+        <v>515.386167336792</v>
+      </c>
+      <c r="S15">
+        <v>0.005315035671351417</v>
+      </c>
+      <c r="T15">
+        <v>0.005586907409817148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.971679</v>
+      </c>
+      <c r="H16">
+        <v>2.915037</v>
+      </c>
+      <c r="I16">
+        <v>0.01022059415658427</v>
+      </c>
+      <c r="J16">
+        <v>0.01073863924961949</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.150414</v>
+      </c>
+      <c r="N16">
+        <v>0.300828</v>
+      </c>
+      <c r="O16">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P16">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q16">
+        <v>0.146154125106</v>
+      </c>
+      <c r="R16">
+        <v>0.8769247506359999</v>
+      </c>
+      <c r="S16">
+        <v>1.356522533813615E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.506070782801499E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9124406666666668</v>
+      </c>
+      <c r="H17">
+        <v>2.737322</v>
+      </c>
+      <c r="I17">
+        <v>0.009597496442717394</v>
+      </c>
+      <c r="J17">
+        <v>0.0100839589576554</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.353392</v>
+      </c>
+      <c r="O17">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P17">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q17">
+        <v>0.1074830773582222</v>
+      </c>
+      <c r="R17">
+        <v>0.9673476962240001</v>
+      </c>
+      <c r="S17">
+        <v>9.975990505523876E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.048627680449894E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9124406666666668</v>
+      </c>
+      <c r="H18">
+        <v>2.737322</v>
+      </c>
+      <c r="I18">
+        <v>0.009597496442717394</v>
+      </c>
+      <c r="J18">
+        <v>0.0100839589576554</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.020824</v>
+      </c>
+      <c r="N18">
+        <v>0.062472</v>
+      </c>
+      <c r="O18">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P18">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q18">
+        <v>0.01900066444266667</v>
+      </c>
+      <c r="R18">
+        <v>0.171005979984</v>
+      </c>
+      <c r="S18">
+        <v>1.763537598081132E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.853745089109708E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9124406666666668</v>
+      </c>
+      <c r="H19">
+        <v>2.737322</v>
+      </c>
+      <c r="I19">
+        <v>0.009597496442717394</v>
+      </c>
+      <c r="J19">
+        <v>0.0100839589576554</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.104803</v>
+      </c>
+      <c r="N19">
+        <v>162.314409</v>
+      </c>
+      <c r="O19">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P19">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q19">
+        <v>49.36742251918868</v>
+      </c>
+      <c r="R19">
+        <v>444.3068026726981</v>
+      </c>
+      <c r="S19">
+        <v>0.004582013749869039</v>
+      </c>
+      <c r="T19">
+        <v>0.004816390360089234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9124406666666668</v>
+      </c>
+      <c r="H20">
+        <v>2.737322</v>
+      </c>
+      <c r="I20">
+        <v>0.009597496442717394</v>
+      </c>
+      <c r="J20">
+        <v>0.0100839589576554</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N20">
+        <v>176.802616</v>
+      </c>
+      <c r="O20">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P20">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q20">
+        <v>53.7739656038169</v>
+      </c>
+      <c r="R20">
+        <v>483.965690434352</v>
+      </c>
+      <c r="S20">
+        <v>0.004991004942295761</v>
+      </c>
+      <c r="T20">
+        <v>0.005246302041742692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9124406666666668</v>
+      </c>
+      <c r="H21">
+        <v>2.737322</v>
+      </c>
+      <c r="I21">
+        <v>0.009597496442717394</v>
+      </c>
+      <c r="J21">
+        <v>0.0100839589576554</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.150414</v>
+      </c>
+      <c r="N21">
+        <v>0.300828</v>
+      </c>
+      <c r="O21">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P21">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q21">
+        <v>0.137243850436</v>
+      </c>
+      <c r="R21">
+        <v>0.8234631026160001</v>
+      </c>
+      <c r="S21">
+        <v>1.273822244899037E-05</v>
+      </c>
+      <c r="T21">
+        <v>8.926533929867705E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.75898</v>
+      </c>
+      <c r="H22">
+        <v>27.51796</v>
+      </c>
+      <c r="I22">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J22">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.353392</v>
+      </c>
+      <c r="O22">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P22">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q22">
+        <v>1.620771153386667</v>
+      </c>
+      <c r="R22">
+        <v>9.72462692032</v>
+      </c>
+      <c r="S22">
+        <v>0.0001504311007389991</v>
+      </c>
+      <c r="T22">
+        <v>0.0001054172456346494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.75898</v>
+      </c>
+      <c r="H23">
+        <v>27.51796</v>
+      </c>
+      <c r="I23">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J23">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.020824</v>
+      </c>
+      <c r="N23">
+        <v>0.062472</v>
+      </c>
+      <c r="O23">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P23">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q23">
+        <v>0.28651699952</v>
+      </c>
+      <c r="R23">
+        <v>1.71910199712</v>
+      </c>
+      <c r="S23">
+        <v>2.659293850841772E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.863547043874173E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.75898</v>
+      </c>
+      <c r="H24">
+        <v>27.51796</v>
+      </c>
+      <c r="I24">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J24">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.104803</v>
+      </c>
+      <c r="N24">
+        <v>162.314409</v>
+      </c>
+      <c r="O24">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P24">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q24">
+        <v>744.4269023809401</v>
+      </c>
+      <c r="R24">
+        <v>4466.56141428564</v>
+      </c>
+      <c r="S24">
+        <v>0.06909362750619741</v>
+      </c>
+      <c r="T24">
+        <v>0.04841857745392071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.75898</v>
+      </c>
+      <c r="H25">
+        <v>27.51796</v>
+      </c>
+      <c r="I25">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J25">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N25">
+        <v>176.802616</v>
+      </c>
+      <c r="O25">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P25">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q25">
+        <v>810.8745524972267</v>
+      </c>
+      <c r="R25">
+        <v>4865.24731498336</v>
+      </c>
+      <c r="S25">
+        <v>0.07526093442526878</v>
+      </c>
+      <c r="T25">
+        <v>0.05274042649443279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.75898</v>
+      </c>
+      <c r="H26">
+        <v>27.51796</v>
+      </c>
+      <c r="I26">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J26">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.150414</v>
+      </c>
+      <c r="N26">
+        <v>0.300828</v>
+      </c>
+      <c r="O26">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P26">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q26">
+        <v>2.06954321772</v>
+      </c>
+      <c r="R26">
+        <v>8.278172870880001</v>
+      </c>
+      <c r="S26">
+        <v>0.0001920836656168432</v>
+      </c>
+      <c r="T26">
+        <v>8.973734314806308E-05</v>
       </c>
     </row>
   </sheetData>
